--- a/2021 Group A_Rubric-Invention Convention Judging Sheet.xlsx
+++ b/2021 Group A_Rubric-Invention Convention Judging Sheet.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ja328422.WIPRO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9720"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhLz4L3FPYj/iaGZOtVus6tTUdtzw=="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Eve Ou</t>
   </si>
@@ -80,21 +88,21 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">Niko </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
         <i/>
+        <u/>
+        <sz val="9"/>
         <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>EXAMPLE</t>
     </r>
@@ -165,81 +173,86 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t>10</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> = Excellent   </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t>8</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> = Very Good   </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t>6</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> = Good   </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t>4</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> = Fair</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">   2</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Roboto"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> = Needs Improvement</t>
     </r>
@@ -312,95 +325,142 @@
   </si>
   <si>
     <t>Does it serve a disadvantaged group, like the handicapped, the elderly, or animals? Is the invention more or less friendly to the environment than currently available products?</t>
+  </si>
+  <si>
+    <t>Joahua's inventioi is simple and solves the problem that he wanted to solve. He might have used a different material instead of card board as it gets wet with the water.</t>
+  </si>
+  <si>
+    <t>Bryan selected a good problem to solve. And it is a good problem to solve.But with this invention, I feel it is not easy to play soccer and basketball. It needs improvement. As basketball need a good bounce and soccer ball shouldn't be hard.</t>
+  </si>
+  <si>
+    <t>Natalie's invention solves the problem that she selected. I like the idea but it needs improvement the way holder looks. As current available options might have better look and feel.</t>
+  </si>
+  <si>
+    <t>Ashley selected a problem that is not complex.I like to see improvments in the finished product like the way it looks when you compare with available similar products.</t>
+  </si>
+  <si>
+    <t>Athul showed that he loves his pet and cares. With this invention, he showed that he can find the solutions to the problems that he sees around him. He might have demonstrated his pet playing with the invention. I like his thought process. I like to see improvments in the safety area in the invention.</t>
+  </si>
+  <si>
+    <t>Colin's invention process and the demonstration is good.  The invention might need some improvments in the safety area as the back rest has no screws.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -409,7 +469,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -449,7 +509,13 @@
     </fill>
   </fills>
   <borders count="20">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -463,6 +529,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -477,8 +544,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -488,16 +557,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -507,6 +581,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -515,27 +590,36 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -545,6 +629,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -559,8 +644,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -570,6 +657,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -578,19 +666,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -600,22 +694,29 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -627,6 +728,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -635,6 +738,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -643,189 +749,177 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="7" fontId="14" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1015,33 +1109,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.0"/>
-    <col customWidth="1" min="2" max="2" width="5.14"/>
-    <col customWidth="1" min="4" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="36.86"/>
-    <col customWidth="1" min="6" max="6" width="9.0"/>
-    <col customWidth="1" min="7" max="7" width="9.43"/>
-    <col customWidth="1" min="8" max="8" width="12.14"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="9.57"/>
-    <col customWidth="1" min="11" max="11" width="7.14"/>
-    <col customWidth="1" min="12" max="12" width="33.57"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1052,7 +1151,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1160,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
@@ -1104,7 +1203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1130,7 +1229,7 @@
       </c>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
@@ -1165,10 +1264,10 @@
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="28"/>
       <c r="B8" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>23</v>
@@ -1179,21 +1278,33 @@
       <c r="E8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="F8" s="33">
+        <v>5</v>
+      </c>
+      <c r="G8" s="33">
+        <v>6</v>
+      </c>
+      <c r="H8" s="33">
+        <v>4</v>
+      </c>
+      <c r="I8" s="33">
+        <v>2</v>
+      </c>
+      <c r="J8" s="33">
+        <v>2</v>
+      </c>
       <c r="K8" s="33">
-        <f t="shared" ref="K8:K17" si="1">SUM(F8:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <f t="shared" ref="K8:K17" si="0">SUM(F8:J8)</f>
+        <v>19</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="28"/>
       <c r="B9" s="35">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>26</v>
@@ -1204,21 +1315,33 @@
       <c r="E9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="F9" s="39">
+        <v>5</v>
+      </c>
+      <c r="G9" s="39">
+        <v>5</v>
+      </c>
+      <c r="H9" s="39">
+        <v>5</v>
+      </c>
+      <c r="I9" s="39">
+        <v>2</v>
+      </c>
+      <c r="J9" s="39">
+        <v>2</v>
+      </c>
       <c r="K9" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="35">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>29</v>
@@ -1229,21 +1352,33 @@
       <c r="E10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="F10" s="39">
+        <v>5</v>
+      </c>
+      <c r="G10" s="39">
+        <v>6</v>
+      </c>
+      <c r="H10" s="39">
+        <v>4</v>
+      </c>
+      <c r="I10" s="39">
+        <v>2</v>
+      </c>
+      <c r="J10" s="39">
+        <v>2</v>
+      </c>
       <c r="K10" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="40"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="35">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>32</v>
@@ -1254,21 +1389,33 @@
       <c r="E11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="F11" s="39">
+        <v>6</v>
+      </c>
+      <c r="G11" s="39">
+        <v>5</v>
+      </c>
+      <c r="H11" s="39">
+        <v>4</v>
+      </c>
+      <c r="I11" s="39">
+        <v>2</v>
+      </c>
+      <c r="J11" s="39">
+        <v>3</v>
+      </c>
       <c r="K11" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="35">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>35</v>
@@ -1279,21 +1426,33 @@
       <c r="E12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="F12" s="39">
+        <v>5</v>
+      </c>
+      <c r="G12" s="39">
+        <v>5</v>
+      </c>
+      <c r="H12" s="39">
+        <v>5</v>
+      </c>
+      <c r="I12" s="39">
+        <v>2</v>
+      </c>
+      <c r="J12" s="39">
+        <v>2</v>
+      </c>
       <c r="K12" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="35">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>38</v>
@@ -1301,24 +1460,36 @@
       <c r="D13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="F13" s="39">
+        <v>5</v>
+      </c>
+      <c r="G13" s="39">
+        <v>5</v>
+      </c>
+      <c r="H13" s="39">
+        <v>5</v>
+      </c>
+      <c r="I13" s="39">
+        <v>2</v>
+      </c>
+      <c r="J13" s="39">
+        <v>2</v>
+      </c>
       <c r="K13" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="28"/>
       <c r="B14" s="35">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1329,15 +1500,15 @@
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="40"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="35">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1348,15 +1519,15 @@
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="40"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="35">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1367,15 +1538,15 @@
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="28"/>
       <c r="B17" s="41">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -1386,16 +1557,16 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="45"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="C19" s="47" t="s">
         <v>41</v>
       </c>
@@ -1408,205 +1579,205 @@
       <c r="I19" s="49"/>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="C21" s="51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="B22" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="B23" s="54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="B24" s="55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="B25" s="56">
         <f>AVERAGE(B22:B24)</f>
         <v>0</v>
       </c>
       <c r="C25" s="57"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="C26" s="51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="B27" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="B28" s="54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="B29" s="54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="B30" s="58">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="B31" s="59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="B32" s="56">
         <f>AVERAGE(B27:B31)</f>
         <v>0</v>
       </c>
       <c r="C32" s="57"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="C33" s="51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="2:3" ht="15.75" customHeight="1">
       <c r="B36" s="54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="2:3" ht="15.75" customHeight="1">
       <c r="B37" s="59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="2:3" ht="15.75" customHeight="1">
       <c r="B38" s="56">
         <f>AVERAGE(B34:B37)</f>
         <v>0</v>
       </c>
       <c r="C38" s="57"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="2:3" ht="15.75" customHeight="1">
       <c r="C39" s="51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="2:3" ht="15.75" customHeight="1">
       <c r="B40" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="2:3" ht="15.75" customHeight="1">
       <c r="B41" s="54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="2:3" ht="15.75" customHeight="1">
       <c r="B42" s="55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="2:3" ht="15.75" customHeight="1">
       <c r="B43" s="56">
         <f>AVERAGE(B40:B42)</f>
         <v>0</v>
       </c>
       <c r="C43" s="57"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="2:3" ht="15.75" customHeight="1">
       <c r="C44" s="51" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="2:3" ht="15.75" customHeight="1">
       <c r="B45" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="2:3" ht="15.75" customHeight="1">
       <c r="B46" s="54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="2:3" ht="15.75" customHeight="1">
       <c r="B47" s="55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="2:3" ht="15.75" customHeight="1">
       <c r="B48" s="56">
         <f>AVERAGE(B45:B47)</f>
         <v>0</v>
@@ -2568,14 +2739,15 @@
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C7"/>
-    <hyperlink r:id="rId2" ref="E8"/>
-    <hyperlink r:id="rId3" ref="E9"/>
-    <hyperlink r:id="rId4" ref="E10"/>
-    <hyperlink r:id="rId5" ref="E11"/>
-    <hyperlink r:id="rId6" ref="E12"/>
-    <hyperlink r:id="rId7" ref="E13"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/2021 Group A_Rubric-Invention Convention Judging Sheet.xlsx
+++ b/2021 Group A_Rubric-Invention Convention Judging Sheet.xlsx
@@ -327,9 +327,6 @@
     <t>Does it serve a disadvantaged group, like the handicapped, the elderly, or animals? Is the invention more or less friendly to the environment than currently available products?</t>
   </si>
   <si>
-    <t>Joahua's inventioi is simple and solves the problem that he wanted to solve. He might have used a different material instead of card board as it gets wet with the water.</t>
-  </si>
-  <si>
     <t>Bryan selected a good problem to solve. And it is a good problem to solve.But with this invention, I feel it is not easy to play soccer and basketball. It needs improvement. As basketball need a good bounce and soccer ball shouldn't be hard.</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>Colin's invention process and the demonstration is good.  The invention might need some improvments in the safety area as the back rest has no screws.</t>
+  </si>
+  <si>
+    <t>Joahua's invention is simple and solves the problem that he wanted to solve. He might have used a different material instead of card board as it gets wet with the water.</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1298,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
@@ -1335,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
@@ -1372,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
@@ -1409,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
@@ -1446,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
@@ -1483,7 +1483,7 @@
         <v>19</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
